--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1338976.882807406</v>
+        <v>1336600.255860039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>27.93061033756758</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>282.0179652240194</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.18264333023633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>323.8408286396437</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.60776174434501</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.99283228938607</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>153.7312730021081</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>110.4281445158647</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>192.2415752082175</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110093</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>139.6886855406279</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605716168</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>39.9900098519203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>19.88691958258278</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
-        <v>109.0909680372339</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T40" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.900948886693</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.938431946281</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.938431946281</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>906.1501793480365</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>495.164274558429</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>79.45952428271784</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.500788950814</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.841548125043</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>825.137147448514</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="X4" t="n">
-        <v>825.137147448514</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="Y4" t="n">
-        <v>813.841548125043</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2308.758267664335</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1939.795750723923</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1581.530052117173</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1195.741799518928</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>784.7558947293207</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>369.0511444536096</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>64.99200045117988</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2308.758267664335</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.758267664335</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1580.897804630673</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.269056790534</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.269056790534</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="U7" t="n">
-        <v>1384.269056790534</v>
+        <v>1192.043668434791</v>
       </c>
       <c r="V7" t="n">
-        <v>1384.269056790534</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="W7" t="n">
-        <v>1384.269056790534</v>
+        <v>647.9420101919436</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.950988797912</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1275.288014512647</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.155919098926</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.690160837846</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.550828862034</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598628</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>292.977684031956</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196202</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.761631868611</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336327</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901026</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,25 +6239,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0962634073653</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7576,43 +7576,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8157004124962</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.5498640939298</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>43.2652634529499</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
-        <v>56.43317025503491</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>143.6212754172151</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>32.89260457060011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823578</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586425</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586425</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934927.9732586425</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586425</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586425</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586425</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26329,28 +26329,28 @@
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,19 +26421,19 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719656</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26442,10 +26442,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848178.3576439386</v>
+        <v>-848178.3576439387</v>
       </c>
       <c r="C6" t="n">
+        <v>266573.4259319812</v>
+      </c>
+      <c r="D6" t="n">
         <v>266573.4259319811</v>
       </c>
-      <c r="D6" t="n">
-        <v>266573.4259319807</v>
-      </c>
       <c r="E6" t="n">
-        <v>-131827.3800961687</v>
+        <v>-131862.1180216053</v>
       </c>
       <c r="F6" t="n">
-        <v>375658.061528377</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="G6" t="n">
-        <v>375658.061528377</v>
+        <v>375623.3236029414</v>
       </c>
       <c r="H6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.323602941</v>
       </c>
       <c r="I6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="J6" t="n">
-        <v>208052.8837183943</v>
+        <v>208018.1457929586</v>
       </c>
       <c r="K6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="L6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="M6" t="n">
-        <v>243050.7677994503</v>
+        <v>243016.0298740146</v>
       </c>
       <c r="N6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="O6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029409</v>
       </c>
       <c r="P6" t="n">
-        <v>375658.0615283767</v>
+        <v>375623.3236029412</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802255</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>273.0879422248378</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>4.505033112571596</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.4020100218585</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.4320631313638</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>52.10215092812549</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56474013018756</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>40.93118735962938</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>244.2548971048182</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>156.9993935091955</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>78.89596781146693</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-3.109469020701095e-12</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371021</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822662</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>343.4452429480954</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150837</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.785226202392</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394655</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
